--- a/GUA work/Pt(100)/IR data/IR reference peaks table.xlsx
+++ b/GUA work/Pt(100)/IR data/IR reference peaks table.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16390" windowHeight="8195" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +34,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Wavenumber (cm</t>
+      <t>Wavenumber (cm</t>
     </r>
     <r>
       <rPr>
@@ -41,7 +45,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-1</t>
+      <t>-1</t>
     </r>
     <r>
       <rPr>
@@ -51,297 +55,279 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100 K</t>
+    <t>100 K</t>
   </si>
   <si>
     <t xml:space="preserve">191 K </t>
   </si>
   <si>
-    <t xml:space="preserve">249 K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337 K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">391 K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ehrhardt (IR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verma (IR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vohs/Pt(111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vohs Zn/Pt(111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our work</t>
+    <t>249 K</t>
+  </si>
+  <si>
+    <t>337 K</t>
+  </si>
+  <si>
+    <t>391 K</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Ehrhardt (IR)</t>
+  </si>
+  <si>
+    <t>Verma (IR)</t>
+  </si>
+  <si>
+    <t>Vohs/Pt(111)</t>
+  </si>
+  <si>
+    <t>Vohs Zn/Pt(111)</t>
+  </si>
+  <si>
+    <t>Our work</t>
   </si>
   <si>
     <t xml:space="preserve">Our work </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b (CCO) o.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease 744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'' CCX bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v.s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase 756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' ring def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' O-CH3 bending i.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wag(C-H) ring o.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease 844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' C-C ring breath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'' CCH bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' CCH bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v. s. 1032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' CH3 rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b (CCH) i.p. + v(O-Me)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' O-CH stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v. s. 1047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' C-H bend i.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120 raman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' methyl rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' C-O stretch + O-H i.p. bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1142 small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'' OCH bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' O-CH3 stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b (OCH) + b (CCH)ring i.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1180 raman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1208 small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1229 raman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' CX stretch “C-OCH3”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v.s. 1226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' CX stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v(C-OMe) + v(C-OH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' CX stretch “C-OH”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v.s. 1265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' CC stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' CH3 sym. def.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'' asym HCH bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v.v.s. 1437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b(HCH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1458/1463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' sym HCH bend/A' asym HCH bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' CH3 asym. def.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1468 raman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' C-C stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1499(IR)/1508(raman)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v(C-C) ring i.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1615 raman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' 681 + 933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gone/v.s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1813 bridge CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase 1824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012 atop CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase 2033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v(C-H) methyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' sym CH stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' C-H sym stretch in methyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' C-H asym stretch in methyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease 2940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' asym CH strech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A'' asym CH strech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3008 (raman)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a' C-H stretch ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3059 (raman)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A' CH stretch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v(C-H) ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3064 and 3071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-H stretch (H-bonding)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase 3395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v(O-H)</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>b (CCO) o.p.</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>decrease 744</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>A'' CCX bend</t>
+  </si>
+  <si>
+    <t>v.s.</t>
+  </si>
+  <si>
+    <t>increase 756</t>
+  </si>
+  <si>
+    <t>A' ring def</t>
+  </si>
+  <si>
+    <t>a' O-CH3 bending i.p.</t>
+  </si>
+  <si>
+    <t>wag(C-H) ring o.p.</t>
+  </si>
+  <si>
+    <t>decrease 844</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>a' C-C ring breath</t>
+  </si>
+  <si>
+    <t>A'' CCH bend</t>
+  </si>
+  <si>
+    <t>A' CCH bend</t>
+  </si>
+  <si>
+    <t>v. s. 1032</t>
+  </si>
+  <si>
+    <t>a' CH3 rock</t>
+  </si>
+  <si>
+    <t>b (CCH) i.p. + v(O-Me)</t>
+  </si>
+  <si>
+    <t>A' O-CH stretch</t>
+  </si>
+  <si>
+    <t>v. s. 1047</t>
+  </si>
+  <si>
+    <t>a' C-H bend i.p.</t>
+  </si>
+  <si>
+    <t>1120 raman</t>
+  </si>
+  <si>
+    <t>A' methyl rock</t>
+  </si>
+  <si>
+    <t>A' C-O stretch + O-H i.p. bend</t>
+  </si>
+  <si>
+    <t>1142 small</t>
+  </si>
+  <si>
+    <t>A'' OCH bend</t>
+  </si>
+  <si>
+    <t>a' O-CH3 stretch</t>
+  </si>
+  <si>
+    <t>b (OCH) + b (CCH)ring i.p.</t>
+  </si>
+  <si>
+    <t>1180 raman</t>
+  </si>
+  <si>
+    <t>1208 small</t>
+  </si>
+  <si>
+    <t>1229 raman</t>
+  </si>
+  <si>
+    <t>A' CX stretch “C-OCH3”</t>
+  </si>
+  <si>
+    <t>v.s. 1226</t>
+  </si>
+  <si>
+    <t>A' CX stretch</t>
+  </si>
+  <si>
+    <t>v(C-OMe) + v(C-OH)</t>
+  </si>
+  <si>
+    <t>A' CX stretch “C-OH”</t>
+  </si>
+  <si>
+    <t>v.s. 1265</t>
+  </si>
+  <si>
+    <t>A' CC stretch</t>
+  </si>
+  <si>
+    <t>a' CH3 sym. def.</t>
+  </si>
+  <si>
+    <t>A'' asym HCH bend</t>
+  </si>
+  <si>
+    <t>v.v.s. 1437</t>
+  </si>
+  <si>
+    <t>b(HCH)</t>
+  </si>
+  <si>
+    <t>1458/1463</t>
+  </si>
+  <si>
+    <t>A' sym HCH bend/A' asym HCH bend</t>
+  </si>
+  <si>
+    <t>a' CH3 asym. def.</t>
+  </si>
+  <si>
+    <t>1468 raman</t>
+  </si>
+  <si>
+    <t>a' C-C stretch</t>
+  </si>
+  <si>
+    <t>1499(IR)/1508(raman)</t>
+  </si>
+  <si>
+    <t>v(C-C) ring i.p.</t>
+  </si>
+  <si>
+    <t>1615 raman</t>
+  </si>
+  <si>
+    <t>A' 681 + 933</t>
+  </si>
+  <si>
+    <t>gone/v.s.</t>
+  </si>
+  <si>
+    <t>1813 bridge CO</t>
+  </si>
+  <si>
+    <t>increase 1824</t>
+  </si>
+  <si>
+    <t>2012 atop CO</t>
+  </si>
+  <si>
+    <t>increase 2033</t>
+  </si>
+  <si>
+    <t>v(C-H) methyl</t>
+  </si>
+  <si>
+    <t>A' sym CH stretch</t>
+  </si>
+  <si>
+    <t>a' C-H sym stretch in methyl</t>
+  </si>
+  <si>
+    <t>a' C-H asym stretch in methyl</t>
+  </si>
+  <si>
+    <t>decrease 2940</t>
+  </si>
+  <si>
+    <t>A' asym CH strech</t>
+  </si>
+  <si>
+    <t>A'' asym CH strech</t>
+  </si>
+  <si>
+    <t>3008 (raman)</t>
+  </si>
+  <si>
+    <t>a' C-H stretch ring</t>
+  </si>
+  <si>
+    <t>3059 (raman)</t>
+  </si>
+  <si>
+    <t>A' CH stretch</t>
+  </si>
+  <si>
+    <t>v(C-H) ring</t>
+  </si>
+  <si>
+    <t>3064 and 3071</t>
+  </si>
+  <si>
+    <t>O-H stretch (H-bonding)</t>
+  </si>
+  <si>
+    <t>increase 3395</t>
+  </si>
+  <si>
+    <t>v(O-H)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -352,7 +338,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -360,7 +346,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -407,136 +393,97 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -595,39 +542,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="30.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="6" width="25.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="22.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="5" width="8.89"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31" style="5" customWidth="1"/>
+    <col min="7" max="10" width="25.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="4" customWidth="1"/>
+    <col min="15" max="1025" width="8.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="16.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -657,7 +912,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -693,20 +948,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>741</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="10">
         <v>740</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="11">
         <v>730</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="12">
         <v>748</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -735,11 +990,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>757</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="9">
         <v>754</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -748,7 +1003,7 @@
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="12">
         <v>760</v>
       </c>
       <c r="F4" s="12"/>
@@ -773,20 +1028,20 @@
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>834</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="9">
         <v>832</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>830</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>840</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="12">
         <v>837</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -817,8 +1072,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>917</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -830,7 +1085,7 @@
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="12">
         <v>919</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -855,8 +1110,8 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>960</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -868,7 +1123,7 @@
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="12">
         <v>961</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -893,20 +1148,20 @@
       <c r="M7" s="10"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>1024</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="9">
         <v>1028</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="10">
         <v>1010</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>1080</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>1027</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -937,20 +1192,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>1040</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="9">
         <v>1042</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>1010</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>1080</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>1043</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -981,8 +1236,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>1110</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -994,7 +1249,7 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="12">
         <v>1112</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1021,7 +1276,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -1041,20 +1296,20 @@
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>1156</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="9">
         <v>1159</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>1150</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="12">
         <v>1156</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -1083,8 +1338,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>1173</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1096,7 +1351,7 @@
       <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="12">
         <v>1177</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1123,7 +1378,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1143,24 +1398,24 @@
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>1225</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>1250</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>1250</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="12">
         <v>1232</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>15</v>
@@ -1187,24 +1442,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>1261</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="9">
         <v>1260</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="10">
         <v>1250</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="11">
         <v>1250</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="12">
         <v>1268</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -1229,11 +1484,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>1303</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="9">
         <v>1302</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1242,7 +1497,7 @@
       <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="12">
         <v>1306</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1269,11 +1524,11 @@
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>1361</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="9">
         <v>1354</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1282,7 +1537,7 @@
       <c r="D18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="12">
         <v>1364</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -1309,20 +1564,20 @@
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>1444</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="10">
         <v>1430</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>1430</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="12">
         <v>1444</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -1351,11 +1606,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="9">
         <v>1456</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1364,7 +1619,7 @@
       <c r="D20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="12">
         <v>1458</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -1391,8 +1646,8 @@
       <c r="M20" s="10"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>1470</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1404,7 +1659,7 @@
       <c r="D21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="12">
         <v>1471</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -1431,20 +1686,20 @@
       <c r="M21" s="10"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>1502</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="10">
         <v>1550</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="11">
         <v>1560</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="12">
         <v>1508</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -1475,20 +1730,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="9">
         <v>1564</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="10">
         <v>1550</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="11">
         <v>1560</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="12">
         <v>1558</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -1517,16 +1772,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>1597</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="9">
         <v>1600</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="12">
         <v>1599</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -1553,8 +1808,8 @@
       <c r="M24" s="10"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>1615</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1566,7 +1821,7 @@
       <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="12">
         <v>1617</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -1593,7 +1848,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +1861,7 @@
       <c r="D26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="12">
         <v>1653</v>
       </c>
       <c r="F26" s="12"/>
@@ -1627,7 +1882,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" ht="18.350000000000001" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1895,7 @@
       <c r="D27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="17" t="n">
+      <c r="E27" s="17">
         <v>1701</v>
       </c>
       <c r="F27" s="17"/>
@@ -1661,12 +1916,12 @@
       <c r="M27" s="10"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:14" ht="18.350000000000001" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="17" t="n">
+      <c r="E28" s="17">
         <v>1716</v>
       </c>
       <c r="F28" s="17"/>
@@ -1687,7 +1942,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:14" ht="18.350000000000001" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -1707,7 +1962,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" ht="18.350000000000001" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -1727,20 +1982,20 @@
       <c r="M30" s="10"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>2843</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="9">
         <v>2842</v>
       </c>
-      <c r="C31" s="10" t="n">
+      <c r="C31" s="10">
         <v>2870</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="11">
         <v>2870</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="12">
         <v>2842</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -1771,7 +2026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
@@ -1784,11 +2039,11 @@
       <c r="D32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="12">
         <v>2912</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="7">
         <v>2909</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -1805,11 +2060,11 @@
       <c r="M32" s="10"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="9">
         <v>2932</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -1818,7 +2073,7 @@
       <c r="D33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="12">
         <v>2934</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -1843,20 +2098,20 @@
       <c r="M33" s="10"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>2950</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="10">
         <v>2870</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="11">
         <v>2870</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="12">
         <v>2954</v>
       </c>
       <c r="F34" s="12"/>
@@ -1883,20 +2138,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>2965</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="10">
         <v>2870</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="11">
         <v>2870</v>
       </c>
-      <c r="E35" s="12" t="n">
+      <c r="E35" s="12">
         <v>2969</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -1925,7 +2180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
@@ -1934,7 +2189,7 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="12" t="n">
+      <c r="E36" s="12">
         <v>3012</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -1959,20 +2214,20 @@
       <c r="M36" s="10"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
         <v>3054</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="10">
         <v>3030</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="11">
         <v>3030</v>
       </c>
-      <c r="E37" s="12" t="n">
+      <c r="E37" s="12">
         <v>3054</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -2003,11 +2258,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
         <v>3070</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="9">
         <v>3071</v>
       </c>
       <c r="C38" s="10"/>
@@ -2039,17 +2294,19 @@
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>3370</v>
+      </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="10">
         <v>3300</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="11">
         <v>3350</v>
       </c>
-      <c r="E39" s="12" t="n">
-        <v>3420</v>
+      <c r="E39" s="12">
+        <v>3395</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>84</v>
@@ -2077,11 +2334,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="11" t="n">
+      <c r="D40" s="11">
         <v>3500</v>
       </c>
       <c r="E40" s="12"/>
@@ -2099,14 +2356,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/GUA work/Pt(100)/IR data/IR reference peaks table.xlsx
+++ b/GUA work/Pt(100)/IR data/IR reference peaks table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>v(O-H)</t>
+  </si>
+  <si>
+    <t>A' ring def (out of phase breathing mode)</t>
   </si>
 </sst>
 </file>
@@ -862,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>27</v>
